--- a/sub-22ML/results_onetap_sub-22ML.xlsx
+++ b/sub-22ML/results_onetap_sub-22ML.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-22ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DD3088BC-7B06-40D1-88EE-151BDA0DA6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{DD3088BC-7B06-40D1-88EE-151BDA0DA6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF715DA-65A8-4DCD-AF69-07F1386EA5E7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView minimized="1" xWindow="4480" yWindow="2380" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_onetap_sub-22ML (2)" sheetId="2" r:id="rId1"/>
     <sheet name="results_onetap_sub-22ML" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_onetap_sub-22ML (2)'!$A$1:$G$14</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_onetap_sub-22ML (2)'!$A$1:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - results_onetap_sub-22ML" description="Connexion à la requête « results_onetap_sub-22ML » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - results_onetap_sub-22ML" description="Connexion à la requête « results_onetap_sub-22ML » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=results_onetap_sub-22ML;Extended Properties=&quot;&quot;" command="SELECT * FROM [results_onetap_sub-22ML]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Essai,400,600,800,1000,1200,1400</t>
   </si>
@@ -125,12 +137,15 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,7 +717,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -718,16 +733,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="results_onetap_sub_22ML" displayName="results_onetap_sub_22ML" ref="A1:G14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="results_onetap_sub_22ML" displayName="results_onetap_sub_22ML" ref="A1:G15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" uniqueName="2" name="400" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" uniqueName="3" name="600" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" uniqueName="4" name="800" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" uniqueName="5" name="1000" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="1200" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" uniqueName="7" name="1400" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="400" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="600" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="800" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="1000" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="1200" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="1400" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1029,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1330,28 +1345,28 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>0.10888401522934553</v>
+        <f>_xlfn.STDEV.P(B2:B11)</f>
+        <v>0.10329644667275786</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:G13" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>0.20355330904928376</v>
+        <f t="shared" ref="C13:G13" si="1">_xlfn.STDEV.P(C2:C11)</f>
+        <v>0.19310762455797029</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>0.15217619332564292</v>
+        <v>0.14436701296894375</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.2617333668630874</v>
+        <v>0.24830207368553911</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.22837267494380334</v>
+        <v>0.21665334245030496</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0.18937000922044206</v>
+        <v>0.17965216489910438</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1383,13 +1398,42 @@
         <v>-0.10232884000287923</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B13/B12</f>
+        <v>0.24528332592896301</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:G15" si="2">C13/C12</f>
+        <v>0.23431249913571911</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14747246302501543</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20713395386503011</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15689290084426086</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11958245100237846</v>
+      </c>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B13:G13)</f>
-        <v>0.19068159477193417</v>
+        <v>0.18089644420577008</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
